--- a/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
+++ b/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="449">
   <si>
     <t>土地坐落</t>
   </si>
@@ -1062,6 +1062,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中和纺織"</t>
   </si>
   <si>
@@ -1138,6 +1147,9 @@
   </si>
   <si>
     <t>29，000’000</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -6464,13 +6476,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>340</v>
       </c>
@@ -6489,13 +6501,22 @@
       <c r="G1" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>183</v>
@@ -6512,13 +6533,22 @@
       <c r="G2" s="2">
         <v>4880</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>183</v>
@@ -6535,19 +6565,28 @@
       <c r="G3" s="2">
         <v>5302900</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -6558,13 +6597,22 @@
       <c r="G4" s="2">
         <v>215290</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>244</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>184</v>
@@ -6581,13 +6629,22 @@
       <c r="G5" s="2">
         <v>3024260</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>184</v>
@@ -6604,13 +6661,22 @@
       <c r="G6" s="2">
         <v>1121890</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>246</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>184</v>
@@ -6627,13 +6693,22 @@
       <c r="G7" s="2">
         <v>151360</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>247</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>184</v>
@@ -6645,18 +6720,27 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G8" s="2">
         <v>869330</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>249</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>184</v>
@@ -6673,13 +6757,22 @@
       <c r="G9" s="2">
         <v>373040</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>250</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>184</v>
@@ -6696,13 +6789,22 @@
       <c r="G10" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>251</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>184</v>
@@ -6719,13 +6821,22 @@
       <c r="G11" s="2">
         <v>139150</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>252</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>184</v>
@@ -6742,13 +6853,22 @@
       <c r="G12" s="2">
         <v>222640</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>253</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>184</v>
@@ -6765,13 +6885,22 @@
       <c r="G13" s="2">
         <v>42600</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>254</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>184</v>
@@ -6788,13 +6917,22 @@
       <c r="G14" s="2">
         <v>93500000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>255</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>184</v>
@@ -6811,13 +6949,22 @@
       <c r="G15" s="2">
         <v>252000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>256</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>184</v>
@@ -6834,13 +6981,22 @@
       <c r="G16" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>257</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>183</v>
@@ -6857,13 +7013,22 @@
       <c r="G17" s="2">
         <v>55000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>258</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>184</v>
@@ -6880,19 +7045,28 @@
       <c r="G18" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>259</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
@@ -6903,13 +7077,22 @@
       <c r="G19" s="2">
         <v>18000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>260</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>183</v>
@@ -6926,13 +7109,22 @@
       <c r="G20" s="2">
         <v>1780</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>261</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>184</v>
@@ -6947,15 +7139,24 @@
         <v>335</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>374</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>262</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>183</v>
@@ -6972,13 +7173,22 @@
       <c r="G22" s="2">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>263</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>183</v>
@@ -6995,13 +7205,22 @@
       <c r="G23" s="2">
         <v>10780000</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>264</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>184</v>
@@ -7018,13 +7237,22 @@
       <c r="G24" s="2">
         <v>15000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>265</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>184</v>
@@ -7041,13 +7269,22 @@
       <c r="G25" s="2">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>266</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>183</v>
@@ -7063,6 +7300,15 @@
       </c>
       <c r="G26" s="2">
         <v>6000000</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -7080,16 +7326,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7097,7 +7343,7 @@
         <v>293</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -7114,7 +7360,7 @@
         <v>294</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -7131,7 +7377,7 @@
         <v>295</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -7148,7 +7394,7 @@
         <v>296</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C5" s="2">
         <v>-1</v>
@@ -7165,7 +7411,7 @@
         <v>297</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C6" s="2">
         <v>0.1</v>
@@ -7174,7 +7420,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7182,7 +7428,7 @@
         <v>298</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -7199,7 +7445,7 @@
         <v>299</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -7216,7 +7462,7 @@
         <v>300</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -7233,7 +7479,7 @@
         <v>301</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -7250,7 +7496,7 @@
         <v>302</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -7267,7 +7513,7 @@
         <v>303</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -7284,10 +7530,10 @@
         <v>304</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>184</v>
@@ -7301,7 +7547,7 @@
         <v>305</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -7310,7 +7556,7 @@
         <v>184</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7318,7 +7564,7 @@
         <v>306</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -7335,7 +7581,7 @@
         <v>307</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -7352,7 +7598,7 @@
         <v>308</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -7369,7 +7615,7 @@
         <v>310</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -7396,16 +7642,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7413,16 +7659,16 @@
         <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7430,10 +7676,10 @@
         <v>316</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>185</v>
@@ -7445,10 +7691,10 @@
         <v>317</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>183</v>
@@ -7460,10 +7706,10 @@
         <v>318</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>183</v>
@@ -7475,10 +7721,10 @@
         <v>320</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>183</v>
@@ -7490,16 +7736,16 @@
         <v>321</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7507,10 +7753,10 @@
         <v>322</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>183</v>
@@ -7535,19 +7781,19 @@
         <v>301</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7555,22 +7801,22 @@
         <v>327</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E2" s="2">
         <v>180350000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7578,22 +7824,22 @@
         <v>328</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E3" s="2">
         <v>44665413</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7601,22 +7847,22 @@
         <v>329</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7624,22 +7870,22 @@
         <v>330</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E5" s="2">
         <v>177126000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7647,22 +7893,22 @@
         <v>331</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7670,22 +7916,22 @@
         <v>332</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -7703,22 +7949,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7729,19 +7975,19 @@
         <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E2" s="2">
         <v>17500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7749,22 +7995,22 @@
         <v>343</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
+++ b/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="451">
   <si>
     <t>土地坐落</t>
   </si>
@@ -1062,6 +1062,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -1086,7 +1089,7 @@
     <t>寶華銀行</t>
   </si>
   <si>
-    <t>潤泰創新國際股份有限公 司</t>
+    <t>潤泰創新國際股份有限公司</t>
   </si>
   <si>
     <t>開發金</t>
@@ -1134,19 +1137,22 @@
     <t>資信建設股份有限公司</t>
   </si>
   <si>
-    <t>漢堡開發建設股份有限公 司</t>
-  </si>
-  <si>
-    <t>21，529</t>
-  </si>
-  <si>
-    <t>.1,800,000</t>
+    <t>漢堡開發建設股份有限公司</t>
+  </si>
+  <si>
+    <t>21529</t>
+  </si>
+  <si>
+    <t>.1800000</t>
   </si>
   <si>
     <t>新_幣</t>
   </si>
   <si>
-    <t>29，000’000</t>
+    <t>29000’000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-12</t>
@@ -6476,13 +6482,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>340</v>
       </c>
@@ -6510,13 +6516,16 @@
       <c r="J1" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>183</v>
@@ -6534,21 +6543,24 @@
         <v>4880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="2">
+        <v>377</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>183</v>
@@ -6566,27 +6578,30 @@
         <v>5302900</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" s="2">
+        <v>377</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -6598,21 +6613,24 @@
         <v>215290</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" s="2">
+        <v>377</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>244</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>184</v>
@@ -6630,21 +6648,24 @@
         <v>3024260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J5" s="2">
+        <v>377</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>184</v>
@@ -6662,21 +6683,24 @@
         <v>1121890</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J6" s="2">
+        <v>377</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>246</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>184</v>
@@ -6694,21 +6718,24 @@
         <v>151360</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J7" s="2">
+        <v>377</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>247</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>184</v>
@@ -6720,27 +6747,30 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G8" s="2">
         <v>869330</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J8" s="2">
+        <v>377</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>249</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>184</v>
@@ -6758,21 +6788,24 @@
         <v>373040</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J9" s="2">
+        <v>377</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>250</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>184</v>
@@ -6790,21 +6823,24 @@
         <v>1000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J10" s="2">
+        <v>377</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>251</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>184</v>
@@ -6822,21 +6858,24 @@
         <v>139150</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J11" s="2">
+        <v>377</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K11" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>252</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>184</v>
@@ -6854,21 +6893,24 @@
         <v>222640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J12" s="2">
+        <v>377</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>253</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>184</v>
@@ -6886,21 +6928,24 @@
         <v>42600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J13" s="2">
+        <v>377</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>254</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>184</v>
@@ -6918,21 +6963,24 @@
         <v>93500000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J14" s="2">
+        <v>377</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>255</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>184</v>
@@ -6950,21 +6998,24 @@
         <v>252000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J15" s="2">
+        <v>377</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K15" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>256</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>184</v>
@@ -6982,21 +7033,24 @@
         <v>300000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J16" s="2">
+        <v>377</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>257</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>183</v>
@@ -7014,21 +7068,24 @@
         <v>55000000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J17" s="2">
+        <v>377</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>258</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>184</v>
@@ -7046,27 +7103,30 @@
         <v>1500000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J18" s="2">
+        <v>377</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>259</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
@@ -7078,21 +7138,24 @@
         <v>18000000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J19" s="2">
+        <v>377</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>260</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>183</v>
@@ -7110,21 +7173,24 @@
         <v>1780</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J20" s="2">
+        <v>377</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>261</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>184</v>
@@ -7139,24 +7205,27 @@
         <v>335</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J21" s="2">
+        <v>377</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>262</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>183</v>
@@ -7174,21 +7243,24 @@
         <v>7000000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J22" s="2">
+        <v>377</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>263</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>183</v>
@@ -7206,21 +7278,24 @@
         <v>10780000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J23" s="2">
+        <v>377</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>264</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>184</v>
@@ -7238,21 +7313,24 @@
         <v>15000000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J24" s="2">
+        <v>377</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>265</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>184</v>
@@ -7270,21 +7348,24 @@
         <v>5000000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J25" s="2">
+        <v>377</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K25" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>266</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>183</v>
@@ -7302,12 +7383,15 @@
         <v>6000000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J26" s="2">
+        <v>377</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="2">
         <v>1347</v>
       </c>
     </row>
@@ -7326,16 +7410,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7343,7 +7427,7 @@
         <v>293</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -7360,7 +7444,7 @@
         <v>294</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -7377,7 +7461,7 @@
         <v>295</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -7394,7 +7478,7 @@
         <v>296</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C5" s="2">
         <v>-1</v>
@@ -7411,7 +7495,7 @@
         <v>297</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C6" s="2">
         <v>0.1</v>
@@ -7420,7 +7504,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7428,7 +7512,7 @@
         <v>298</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -7445,7 +7529,7 @@
         <v>299</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -7462,7 +7546,7 @@
         <v>300</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -7479,7 +7563,7 @@
         <v>301</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -7496,7 +7580,7 @@
         <v>302</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -7513,7 +7597,7 @@
         <v>303</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -7530,10 +7614,10 @@
         <v>304</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>184</v>
@@ -7547,7 +7631,7 @@
         <v>305</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -7556,7 +7640,7 @@
         <v>184</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7564,7 +7648,7 @@
         <v>306</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -7581,7 +7665,7 @@
         <v>307</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -7598,7 +7682,7 @@
         <v>308</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -7615,7 +7699,7 @@
         <v>310</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -7642,16 +7726,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7659,16 +7743,16 @@
         <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7676,10 +7760,10 @@
         <v>316</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>185</v>
@@ -7691,10 +7775,10 @@
         <v>317</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>183</v>
@@ -7706,10 +7790,10 @@
         <v>318</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>183</v>
@@ -7721,10 +7805,10 @@
         <v>320</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>183</v>
@@ -7736,16 +7820,16 @@
         <v>321</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7753,10 +7837,10 @@
         <v>322</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>183</v>
@@ -7781,19 +7865,19 @@
         <v>301</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7801,22 +7885,22 @@
         <v>327</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E2" s="2">
         <v>180350000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7824,22 +7908,22 @@
         <v>328</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E3" s="2">
         <v>44665413</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7847,22 +7931,22 @@
         <v>329</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7870,22 +7954,22 @@
         <v>330</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E5" s="2">
         <v>177126000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7893,22 +7977,22 @@
         <v>331</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7916,22 +8000,22 @@
         <v>332</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -7949,22 +8033,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7975,19 +8059,19 @@
         <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E2" s="2">
         <v>17500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7995,22 +8079,22 @@
         <v>343</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
+++ b/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="456">
   <si>
     <t>土地坐落</t>
   </si>
@@ -1065,6 +1065,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -1074,6 +1077,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中和纺織"</t>
   </si>
   <si>
@@ -1143,19 +1152,25 @@
     <t>21529</t>
   </si>
   <si>
-    <t>.1800000</t>
-  </si>
-  <si>
-    <t>新_幣</t>
-  </si>
-  <si>
-    <t>29000’000</t>
+    <t>1800000</t>
+  </si>
+  <si>
+    <t>新幣</t>
+  </si>
+  <si>
+    <t>29000000</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-12</t>
+  </si>
+  <si>
+    <t>tmpe4561</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -6482,13 +6497,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>340</v>
       </c>
@@ -6519,13 +6534,22 @@
       <c r="K1" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>183</v>
@@ -6543,24 +6567,33 @@
         <v>4880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K2" s="2">
+        <v>381</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L2" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N2" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>183</v>
@@ -6578,30 +6611,39 @@
         <v>5302900</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K3" s="2">
+        <v>381</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N3" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -6613,24 +6655,33 @@
         <v>215290</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K4" s="2">
+        <v>381</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N4" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>244</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>184</v>
@@ -6648,24 +6699,33 @@
         <v>3024260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K5" s="2">
+        <v>381</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N5" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>184</v>
@@ -6683,24 +6743,33 @@
         <v>1121890</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K6" s="2">
+        <v>381</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N6" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>246</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>184</v>
@@ -6718,24 +6787,33 @@
         <v>151360</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K7" s="2">
+        <v>381</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N7" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>247</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>184</v>
@@ -6747,30 +6825,39 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G8" s="2">
         <v>869330</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K8" s="2">
+        <v>381</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N8" s="2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>249</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>184</v>
@@ -6788,24 +6875,33 @@
         <v>373040</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K9" s="2">
+        <v>381</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N9" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>250</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>184</v>
@@ -6823,24 +6919,33 @@
         <v>1000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K10" s="2">
+        <v>381</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N10" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>251</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>184</v>
@@ -6858,24 +6963,33 @@
         <v>139150</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K11" s="2">
+        <v>381</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L11" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N11" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>252</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>184</v>
@@ -6893,24 +7007,33 @@
         <v>222640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K12" s="2">
+        <v>381</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L12" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N12" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>253</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>184</v>
@@ -6928,24 +7051,33 @@
         <v>42600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K13" s="2">
+        <v>381</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N13" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>254</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>184</v>
@@ -6954,7 +7086,7 @@
         <v>9350000</v>
       </c>
       <c r="E14" s="2">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>335</v>
@@ -6963,24 +7095,33 @@
         <v>93500000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K14" s="2">
+        <v>381</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N14" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>255</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>184</v>
@@ -6998,24 +7139,33 @@
         <v>252000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K15" s="2">
+        <v>381</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L15" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N15" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>256</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>184</v>
@@ -7033,24 +7183,33 @@
         <v>300000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K16" s="2">
+        <v>381</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N16" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>257</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>183</v>
@@ -7068,24 +7227,33 @@
         <v>55000000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K17" s="2">
+        <v>381</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N17" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>258</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>184</v>
@@ -7103,30 +7271,39 @@
         <v>1500000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K18" s="2">
+        <v>381</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N18" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>259</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
@@ -7138,24 +7315,33 @@
         <v>18000000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K19" s="2">
+        <v>381</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N19" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>260</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>183</v>
@@ -7173,24 +7359,33 @@
         <v>1780</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K20" s="2">
+        <v>381</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N20" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>261</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>184</v>
@@ -7205,27 +7400,36 @@
         <v>335</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K21" s="2">
+        <v>381</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N21" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>262</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>183</v>
@@ -7243,24 +7447,33 @@
         <v>7000000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K22" s="2">
+        <v>381</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N22" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>263</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>183</v>
@@ -7278,24 +7491,33 @@
         <v>10780000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K23" s="2">
+        <v>381</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N23" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>264</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>184</v>
@@ -7313,24 +7535,33 @@
         <v>15000000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K24" s="2">
+        <v>381</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N24" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>265</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>184</v>
@@ -7348,24 +7579,33 @@
         <v>5000000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K25" s="2">
+        <v>381</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L25" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N25" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>266</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>183</v>
@@ -7383,16 +7623,25 @@
         <v>6000000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K26" s="2">
+        <v>381</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L26" s="2">
         <v>1347</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N26" s="2">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7410,16 +7659,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7427,7 +7676,7 @@
         <v>293</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -7444,7 +7693,7 @@
         <v>294</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -7461,7 +7710,7 @@
         <v>295</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -7478,7 +7727,7 @@
         <v>296</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C5" s="2">
         <v>-1</v>
@@ -7495,7 +7744,7 @@
         <v>297</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C6" s="2">
         <v>0.1</v>
@@ -7504,7 +7753,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7512,7 +7761,7 @@
         <v>298</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -7529,7 +7778,7 @@
         <v>299</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -7546,7 +7795,7 @@
         <v>300</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -7563,7 +7812,7 @@
         <v>301</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -7580,7 +7829,7 @@
         <v>302</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -7597,7 +7846,7 @@
         <v>303</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -7614,10 +7863,10 @@
         <v>304</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>184</v>
@@ -7631,7 +7880,7 @@
         <v>305</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -7640,7 +7889,7 @@
         <v>184</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7648,7 +7897,7 @@
         <v>306</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -7665,7 +7914,7 @@
         <v>307</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -7682,7 +7931,7 @@
         <v>308</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -7699,7 +7948,7 @@
         <v>310</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -7726,16 +7975,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7743,16 +7992,16 @@
         <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7760,10 +8009,10 @@
         <v>316</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>185</v>
@@ -7775,10 +8024,10 @@
         <v>317</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>183</v>
@@ -7790,10 +8039,10 @@
         <v>318</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>183</v>
@@ -7805,10 +8054,10 @@
         <v>320</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>183</v>
@@ -7820,16 +8069,16 @@
         <v>321</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7837,10 +8086,10 @@
         <v>322</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>183</v>
@@ -7865,19 +8114,19 @@
         <v>301</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7885,22 +8134,22 @@
         <v>327</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E2" s="2">
         <v>180350000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7908,22 +8157,22 @@
         <v>328</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E3" s="2">
         <v>44665413</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7931,22 +8180,22 @@
         <v>329</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7954,22 +8203,22 @@
         <v>330</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E5" s="2">
         <v>177126000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7977,22 +8226,22 @@
         <v>331</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8000,22 +8249,22 @@
         <v>332</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -8033,22 +8282,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8059,19 +8308,19 @@
         <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E2" s="2">
         <v>17500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8079,22 +8328,22 @@
         <v>343</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
+++ b/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
@@ -9,20 +9,19 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="汽車" sheetId="3" r:id="rId3"/>
-    <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
-    <sheet name="保險" sheetId="7" r:id="rId7"/>
-    <sheet name="債權" sheetId="8" r:id="rId8"/>
-    <sheet name="事業投資" sheetId="9" r:id="rId9"/>
+    <sheet name="存款" sheetId="3" r:id="rId3"/>
+    <sheet name="股票" sheetId="4" r:id="rId4"/>
+    <sheet name="具有相當價值之財產" sheetId="5" r:id="rId5"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="債權" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="410">
   <si>
     <t>name</t>
   </si>
@@ -898,21 +897,6 @@
   </si>
   <si>
     <t>(超過5年)</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>取得價額</t>
   </si>
   <si>
     <t>彰化商業銀行城東分行</t>
@@ -9648,56 +9632,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>189</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9706,13 +9640,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>188</v>
@@ -9724,16 +9658,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>188</v>
@@ -9745,16 +9679,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>188</v>
@@ -9766,16 +9700,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>188</v>
@@ -9787,16 +9721,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>188</v>
@@ -9808,16 +9742,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>188</v>
@@ -9829,16 +9763,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>188</v>
@@ -9850,16 +9784,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>188</v>
@@ -9871,16 +9805,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>188</v>
@@ -9892,16 +9826,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>188</v>
@@ -9913,16 +9847,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>188</v>
@@ -9934,16 +9868,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>188</v>
@@ -9955,16 +9889,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>189</v>
@@ -9976,16 +9910,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>189</v>
@@ -9999,16 +9933,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>189</v>
@@ -10020,37 +9954,37 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>189</v>
@@ -10062,16 +9996,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>189</v>
@@ -10083,16 +10017,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>189</v>
@@ -10104,16 +10038,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>189</v>
@@ -10125,16 +10059,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>189</v>
@@ -10146,16 +10080,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>189</v>
@@ -10167,16 +10101,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>189</v>
@@ -10188,16 +10122,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>189</v>
@@ -10209,16 +10143,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>189</v>
@@ -10230,16 +10164,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>189</v>
@@ -10251,16 +10185,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>189</v>
@@ -10272,16 +10206,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>189</v>
@@ -10293,16 +10227,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>189</v>
@@ -10314,16 +10248,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>189</v>
@@ -10335,16 +10269,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>189</v>
@@ -10358,16 +10292,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>189</v>
@@ -10379,16 +10313,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>189</v>
@@ -10400,16 +10334,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>189</v>
@@ -10421,16 +10355,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>188</v>
@@ -10447,7 +10381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -10463,13 +10397,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -10498,10 +10432,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>188</v>
@@ -10513,13 +10447,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G2" s="2">
         <v>4880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>275</v>
@@ -10537,15 +10471,15 @@
         <v>277</v>
       </c>
       <c r="N2" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>188</v>
@@ -10557,13 +10491,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G3" s="2">
         <v>5302900</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>275</v>
@@ -10581,33 +10515,33 @@
         <v>277</v>
       </c>
       <c r="N3" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G4" s="2">
         <v>215290</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>275</v>
@@ -10625,15 +10559,15 @@
         <v>277</v>
       </c>
       <c r="N4" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>189</v>
@@ -10645,13 +10579,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G5" s="2">
         <v>3024260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>275</v>
@@ -10669,15 +10603,15 @@
         <v>277</v>
       </c>
       <c r="N5" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>189</v>
@@ -10689,13 +10623,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G6" s="2">
         <v>1121890</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>275</v>
@@ -10713,15 +10647,15 @@
         <v>277</v>
       </c>
       <c r="N6" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>189</v>
@@ -10733,13 +10667,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G7" s="2">
         <v>151360</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>275</v>
@@ -10757,15 +10691,15 @@
         <v>277</v>
       </c>
       <c r="N7" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>189</v>
@@ -10777,13 +10711,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G8" s="2">
         <v>869330</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>275</v>
@@ -10801,15 +10735,15 @@
         <v>277</v>
       </c>
       <c r="N8" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>189</v>
@@ -10821,13 +10755,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G9" s="2">
         <v>373040</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>275</v>
@@ -10845,15 +10779,15 @@
         <v>277</v>
       </c>
       <c r="N9" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>189</v>
@@ -10865,13 +10799,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G10" s="2">
         <v>1000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>275</v>
@@ -10889,15 +10823,15 @@
         <v>277</v>
       </c>
       <c r="N10" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>189</v>
@@ -10909,13 +10843,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G11" s="2">
         <v>139150</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>275</v>
@@ -10933,15 +10867,15 @@
         <v>277</v>
       </c>
       <c r="N11" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>189</v>
@@ -10953,13 +10887,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G12" s="2">
         <v>222640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>275</v>
@@ -10977,15 +10911,15 @@
         <v>277</v>
       </c>
       <c r="N12" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>189</v>
@@ -10997,13 +10931,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G13" s="2">
         <v>42600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>275</v>
@@ -11021,15 +10955,15 @@
         <v>277</v>
       </c>
       <c r="N13" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>189</v>
@@ -11041,13 +10975,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G14" s="2">
         <v>93500000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>275</v>
@@ -11065,15 +10999,15 @@
         <v>277</v>
       </c>
       <c r="N14" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>189</v>
@@ -11085,13 +11019,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G15" s="2">
         <v>252000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>275</v>
@@ -11109,15 +11043,15 @@
         <v>277</v>
       </c>
       <c r="N15" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>189</v>
@@ -11129,13 +11063,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G16" s="2">
         <v>300000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>275</v>
@@ -11153,15 +11087,15 @@
         <v>277</v>
       </c>
       <c r="N16" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>188</v>
@@ -11173,13 +11107,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G17" s="2">
         <v>55000000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>275</v>
@@ -11197,15 +11131,15 @@
         <v>277</v>
       </c>
       <c r="N17" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>189</v>
@@ -11217,13 +11151,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G18" s="2">
         <v>1500000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>275</v>
@@ -11241,33 +11175,33 @@
         <v>277</v>
       </c>
       <c r="N18" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G19" s="2">
         <v>18000000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>275</v>
@@ -11285,15 +11219,15 @@
         <v>277</v>
       </c>
       <c r="N19" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>188</v>
@@ -11305,13 +11239,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G20" s="2">
         <v>1780</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>275</v>
@@ -11329,15 +11263,15 @@
         <v>277</v>
       </c>
       <c r="N20" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>189</v>
@@ -11349,13 +11283,13 @@
         <v>100000</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>275</v>
@@ -11373,15 +11307,15 @@
         <v>277</v>
       </c>
       <c r="N21" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>188</v>
@@ -11393,13 +11327,13 @@
         <v>100000</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G22" s="2">
         <v>7000000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>275</v>
@@ -11417,15 +11351,15 @@
         <v>277</v>
       </c>
       <c r="N22" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>188</v>
@@ -11437,13 +11371,13 @@
         <v>10000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G23" s="2">
         <v>10780000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>275</v>
@@ -11461,15 +11395,15 @@
         <v>277</v>
       </c>
       <c r="N23" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>189</v>
@@ -11481,13 +11415,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G24" s="2">
         <v>15000000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>275</v>
@@ -11505,15 +11439,15 @@
         <v>277</v>
       </c>
       <c r="N24" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>189</v>
@@ -11525,13 +11459,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G25" s="2">
         <v>5000000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>275</v>
@@ -11549,15 +11483,15 @@
         <v>277</v>
       </c>
       <c r="N25" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>188</v>
@@ -11569,13 +11503,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G26" s="2">
         <v>6000000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>275</v>
@@ -11593,7 +11527,7 @@
         <v>277</v>
       </c>
       <c r="N26" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -11601,7 +11535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -11611,7 +11545,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -11625,10 +11559,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -11642,10 +11576,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -11659,10 +11593,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -11676,10 +11610,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C5" s="2">
         <v>-1</v>
@@ -11693,10 +11627,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C6" s="2">
         <v>0.1</v>
@@ -11705,15 +11639,15 @@
         <v>190</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -11727,10 +11661,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -11744,10 +11678,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -11761,10 +11695,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -11778,10 +11712,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -11795,10 +11729,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -11812,13 +11746,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>189</v>
@@ -11829,10 +11763,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -11841,15 +11775,15 @@
         <v>189</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -11863,10 +11797,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -11880,10 +11814,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -11897,10 +11831,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -11917,7 +11851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -11927,44 +11861,44 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>190</v>
@@ -11973,13 +11907,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>188</v>
@@ -11988,13 +11922,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>188</v>
@@ -12003,13 +11937,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>188</v>
@@ -12018,30 +11952,30 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="D7" s="2" t="s">
         <v>189</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>188</v>
@@ -12053,7 +11987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -12063,160 +11997,160 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E1" s="1">
         <v>180350000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E2" s="2">
         <v>180350000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E3" s="2">
         <v>44665413</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E5" s="2">
         <v>177126000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -12224,7 +12158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -12237,65 +12171,65 @@
         <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E1" s="1">
         <v>17500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E2" s="2">
         <v>17500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
+++ b/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="411">
   <si>
     <t>name</t>
   </si>
@@ -897,6 +897,9 @@
   </si>
   <si>
     <t>(超過5年)</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>彰化商業銀行城東分行</t>
@@ -9333,7 +9336,7 @@
         <v>291</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>275</v>
@@ -9386,7 +9389,7 @@
         <v>9309000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>275</v>
@@ -9439,7 +9442,7 @@
         <v>8378700</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>275</v>
@@ -9492,7 +9495,7 @@
         <v>265</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>275</v>
@@ -9545,7 +9548,7 @@
         <v>360986</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>275</v>
@@ -9598,7 +9601,7 @@
         <v>384526</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>275</v>
@@ -9640,13 +9643,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>188</v>
@@ -9661,13 +9664,13 @@
         <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>188</v>
@@ -9682,13 +9685,13 @@
         <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>188</v>
@@ -9703,13 +9706,13 @@
         <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>188</v>
@@ -9724,13 +9727,13 @@
         <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>188</v>
@@ -9745,13 +9748,13 @@
         <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>188</v>
@@ -9766,13 +9769,13 @@
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>188</v>
@@ -9787,13 +9790,13 @@
         <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>188</v>
@@ -9808,13 +9811,13 @@
         <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>188</v>
@@ -9829,13 +9832,13 @@
         <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>188</v>
@@ -9850,13 +9853,13 @@
         <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>188</v>
@@ -9871,13 +9874,13 @@
         <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>188</v>
@@ -9892,13 +9895,13 @@
         <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>189</v>
@@ -9913,13 +9916,13 @@
         <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>189</v>
@@ -9936,13 +9939,13 @@
         <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>189</v>
@@ -9957,20 +9960,20 @@
         <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -9978,13 +9981,13 @@
         <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>189</v>
@@ -9999,13 +10002,13 @@
         <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>189</v>
@@ -10020,13 +10023,13 @@
         <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>189</v>
@@ -10041,13 +10044,13 @@
         <v>216</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>189</v>
@@ -10062,13 +10065,13 @@
         <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>189</v>
@@ -10083,13 +10086,13 @@
         <v>218</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>189</v>
@@ -10104,13 +10107,13 @@
         <v>219</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>189</v>
@@ -10125,13 +10128,13 @@
         <v>220</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>189</v>
@@ -10146,13 +10149,13 @@
         <v>221</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>189</v>
@@ -10167,13 +10170,13 @@
         <v>222</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>189</v>
@@ -10188,13 +10191,13 @@
         <v>223</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>189</v>
@@ -10209,13 +10212,13 @@
         <v>224</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>189</v>
@@ -10230,13 +10233,13 @@
         <v>225</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>189</v>
@@ -10251,13 +10254,13 @@
         <v>226</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>189</v>
@@ -10272,13 +10275,13 @@
         <v>227</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>189</v>
@@ -10295,13 +10298,13 @@
         <v>228</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>189</v>
@@ -10316,13 +10319,13 @@
         <v>229</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>189</v>
@@ -10337,13 +10340,13 @@
         <v>230</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>189</v>
@@ -10358,13 +10361,13 @@
         <v>231</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>188</v>
@@ -10397,13 +10400,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -10435,7 +10438,7 @@
         <v>238</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>188</v>
@@ -10447,13 +10450,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G2" s="2">
         <v>4880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>275</v>
@@ -10479,7 +10482,7 @@
         <v>239</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>188</v>
@@ -10491,13 +10494,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G3" s="2">
         <v>5302900</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>275</v>
@@ -10523,25 +10526,25 @@
         <v>240</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G4" s="2">
         <v>215290</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>275</v>
@@ -10567,7 +10570,7 @@
         <v>241</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>189</v>
@@ -10579,13 +10582,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G5" s="2">
         <v>3024260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>275</v>
@@ -10611,7 +10614,7 @@
         <v>242</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>189</v>
@@ -10623,13 +10626,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G6" s="2">
         <v>1121890</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>275</v>
@@ -10655,7 +10658,7 @@
         <v>243</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>189</v>
@@ -10667,13 +10670,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G7" s="2">
         <v>151360</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>275</v>
@@ -10699,7 +10702,7 @@
         <v>244</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>189</v>
@@ -10711,13 +10714,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G8" s="2">
         <v>869330</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>275</v>
@@ -10743,7 +10746,7 @@
         <v>246</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>189</v>
@@ -10755,13 +10758,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G9" s="2">
         <v>373040</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>275</v>
@@ -10787,7 +10790,7 @@
         <v>247</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>189</v>
@@ -10799,13 +10802,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G10" s="2">
         <v>1000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>275</v>
@@ -10831,7 +10834,7 @@
         <v>248</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>189</v>
@@ -10843,13 +10846,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G11" s="2">
         <v>139150</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>275</v>
@@ -10875,7 +10878,7 @@
         <v>249</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>189</v>
@@ -10887,13 +10890,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G12" s="2">
         <v>222640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>275</v>
@@ -10919,7 +10922,7 @@
         <v>250</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>189</v>
@@ -10931,13 +10934,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G13" s="2">
         <v>42600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>275</v>
@@ -10963,7 +10966,7 @@
         <v>251</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>189</v>
@@ -10975,13 +10978,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G14" s="2">
         <v>93500000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>275</v>
@@ -11007,7 +11010,7 @@
         <v>252</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>189</v>
@@ -11019,13 +11022,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G15" s="2">
         <v>252000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>275</v>
@@ -11051,7 +11054,7 @@
         <v>253</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>189</v>
@@ -11063,13 +11066,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G16" s="2">
         <v>300000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>275</v>
@@ -11095,7 +11098,7 @@
         <v>254</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>188</v>
@@ -11107,13 +11110,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G17" s="2">
         <v>55000000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>275</v>
@@ -11139,7 +11142,7 @@
         <v>255</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>189</v>
@@ -11151,13 +11154,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G18" s="2">
         <v>1500000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>275</v>
@@ -11183,25 +11186,25 @@
         <v>256</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G19" s="2">
         <v>18000000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>275</v>
@@ -11227,7 +11230,7 @@
         <v>257</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>188</v>
@@ -11239,13 +11242,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G20" s="2">
         <v>1780</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>275</v>
@@ -11271,7 +11274,7 @@
         <v>258</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>189</v>
@@ -11283,13 +11286,13 @@
         <v>100000</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>275</v>
@@ -11315,7 +11318,7 @@
         <v>259</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>188</v>
@@ -11327,13 +11330,13 @@
         <v>100000</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G22" s="2">
         <v>7000000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>275</v>
@@ -11359,7 +11362,7 @@
         <v>260</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>188</v>
@@ -11371,13 +11374,13 @@
         <v>10000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G23" s="2">
         <v>10780000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>275</v>
@@ -11403,7 +11406,7 @@
         <v>261</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>189</v>
@@ -11415,13 +11418,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G24" s="2">
         <v>15000000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>275</v>
@@ -11447,7 +11450,7 @@
         <v>262</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>189</v>
@@ -11459,13 +11462,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G25" s="2">
         <v>5000000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>275</v>
@@ -11491,7 +11494,7 @@
         <v>263</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>188</v>
@@ -11503,13 +11506,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G26" s="2">
         <v>6000000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>275</v>
@@ -11545,7 +11548,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -11562,7 +11565,7 @@
         <v>290</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -11579,7 +11582,7 @@
         <v>291</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -11596,7 +11599,7 @@
         <v>292</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -11613,7 +11616,7 @@
         <v>293</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C5" s="2">
         <v>-1</v>
@@ -11630,7 +11633,7 @@
         <v>294</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C6" s="2">
         <v>0.1</v>
@@ -11639,7 +11642,7 @@
         <v>190</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11647,7 +11650,7 @@
         <v>295</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -11664,7 +11667,7 @@
         <v>296</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -11681,7 +11684,7 @@
         <v>297</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -11698,7 +11701,7 @@
         <v>298</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -11715,7 +11718,7 @@
         <v>299</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -11732,7 +11735,7 @@
         <v>300</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -11749,10 +11752,10 @@
         <v>301</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>189</v>
@@ -11766,7 +11769,7 @@
         <v>302</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -11775,7 +11778,7 @@
         <v>189</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11783,7 +11786,7 @@
         <v>303</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -11800,7 +11803,7 @@
         <v>304</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -11817,7 +11820,7 @@
         <v>305</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -11834,7 +11837,7 @@
         <v>307</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -11861,16 +11864,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11878,16 +11881,16 @@
         <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11895,10 +11898,10 @@
         <v>313</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>190</v>
@@ -11910,10 +11913,10 @@
         <v>314</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>188</v>
@@ -11925,10 +11928,10 @@
         <v>315</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>188</v>
@@ -11940,10 +11943,10 @@
         <v>317</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>188</v>
@@ -11955,16 +11958,16 @@
         <v>318</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>189</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11972,10 +11975,10 @@
         <v>319</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>188</v>
@@ -11997,22 +12000,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E1" s="1">
         <v>180350000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -12020,22 +12023,22 @@
         <v>324</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E2" s="2">
         <v>180350000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -12043,22 +12046,22 @@
         <v>325</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E3" s="2">
         <v>44665413</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12066,22 +12069,22 @@
         <v>326</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -12089,22 +12092,22 @@
         <v>327</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E5" s="2">
         <v>177126000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -12112,22 +12115,22 @@
         <v>328</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -12135,22 +12138,22 @@
         <v>329</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -12171,19 +12174,19 @@
         <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E1" s="1">
         <v>17500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -12194,19 +12197,19 @@
         <v>189</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E2" s="2">
         <v>17500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -12217,19 +12220,19 @@
         <v>285</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
+++ b/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="413">
   <si>
     <t>name</t>
   </si>
@@ -902,112 +902,118 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>彰化商業銀行城東分行</t>
   </si>
   <si>
+    <t>國泰世華商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>中和郵局（板橋71支局）</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行雙和分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行永和分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行中和分行</t>
+  </si>
+  <si>
+    <t>臺北縣中和地區農會</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行中和分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城東分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行中和分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行東蘆洲分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行敦化分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行雙和分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行板橋分行</t>
+  </si>
+  <si>
+    <t>中和泰和街郵局(第72支局）</t>
+  </si>
+  <si>
+    <t>台北縣中和地區農會信用部</t>
+  </si>
+  <si>
+    <t>s北縣中和地區農會</t>
+  </si>
+  <si>
+    <t>安泰商業銀行中和分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>中華郵政劃撥儲金</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>外幣存款</t>
+  </si>
+  <si>
+    <t>活存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>國泰世華商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行館前分行</t>
-  </si>
-  <si>
-    <t>中和郵局（板橋71支局）</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行雙和分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行永和分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行中和分行</t>
-  </si>
-  <si>
-    <t>臺北縣中和地區農會</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行中和分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城東分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行中和分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行東蘆洲分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行敦化分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行雙和分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行板橋分行</t>
-  </si>
-  <si>
-    <t>中和泰和街郵局(第72支局）</t>
-  </si>
-  <si>
-    <t>台北縣中和地區農會信用部</t>
-  </si>
-  <si>
-    <t>s北縣中和地區農會</t>
-  </si>
-  <si>
-    <t>安泰商業銀行中和分行</t>
-  </si>
-  <si>
-    <t>中華郵政劃撥儲金</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>外幣存款</t>
-  </si>
-  <si>
-    <t>活存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>89169</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中和纺織"</t>
@@ -9635,13 +9641,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>293</v>
       </c>
@@ -9652,731 +9658,1425 @@
         <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M2" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M3" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M5" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1517</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M6" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>4784539</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M7" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M8" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>14005</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M9" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M10" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M11" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M12" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>3379</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M13" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F14" s="2">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2">
         <v>444.67</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M14" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>204288</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M15" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>89169</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>328</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M16" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>19955.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M17" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M18" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>626775</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M19" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>216</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>1118564</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M20" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>34108</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M21" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>218</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>6017</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M22" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>219</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>41622</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M23" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>220</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>389976</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M24" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>221</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>4315</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M25" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>222</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="F26" s="2">
+        <v>274</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M26" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>223</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>4945</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M27" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>224</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
+      <c r="F28" s="2">
         <v>211474</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M28" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>225</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2">
+      <c r="F29" s="2">
         <v>3871453</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M29" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>226</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2">
+      <c r="F30" s="2">
         <v>9399093</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M30" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>227</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F31" s="2">
-        <v>2.22</v>
-      </c>
-      <c r="G31" s="2">
         <v>65.81</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M31" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>228</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
+      <c r="F32" s="2">
         <v>6646</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>229</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2">
+      <c r="F33" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M33" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>230</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2">
+      <c r="F34" s="2">
         <v>981</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M34" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>231</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F35" s="2">
-        <v>22.36</v>
-      </c>
-      <c r="G35" s="2">
         <v>662.86</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" s="2">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -10400,13 +11100,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -10438,7 +11138,7 @@
         <v>238</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>188</v>
@@ -10450,13 +11150,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G2" s="2">
         <v>4880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>275</v>
@@ -10482,7 +11182,7 @@
         <v>239</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>188</v>
@@ -10494,13 +11194,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G3" s="2">
         <v>5302900</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>275</v>
@@ -10526,25 +11226,25 @@
         <v>240</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G4" s="2">
         <v>215290</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>275</v>
@@ -10570,7 +11270,7 @@
         <v>241</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>189</v>
@@ -10582,13 +11282,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G5" s="2">
         <v>3024260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>275</v>
@@ -10614,7 +11314,7 @@
         <v>242</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>189</v>
@@ -10626,13 +11326,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G6" s="2">
         <v>1121890</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>275</v>
@@ -10658,7 +11358,7 @@
         <v>243</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>189</v>
@@ -10670,13 +11370,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G7" s="2">
         <v>151360</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>275</v>
@@ -10702,7 +11402,7 @@
         <v>244</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>189</v>
@@ -10714,13 +11414,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G8" s="2">
         <v>869330</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>275</v>
@@ -10746,7 +11446,7 @@
         <v>246</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>189</v>
@@ -10758,13 +11458,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G9" s="2">
         <v>373040</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>275</v>
@@ -10790,7 +11490,7 @@
         <v>247</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>189</v>
@@ -10802,13 +11502,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G10" s="2">
         <v>1000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>275</v>
@@ -10834,7 +11534,7 @@
         <v>248</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>189</v>
@@ -10846,13 +11546,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G11" s="2">
         <v>139150</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>275</v>
@@ -10878,7 +11578,7 @@
         <v>249</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>189</v>
@@ -10890,13 +11590,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G12" s="2">
         <v>222640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>275</v>
@@ -10922,7 +11622,7 @@
         <v>250</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>189</v>
@@ -10934,13 +11634,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G13" s="2">
         <v>42600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>275</v>
@@ -10966,7 +11666,7 @@
         <v>251</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>189</v>
@@ -10978,13 +11678,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G14" s="2">
         <v>93500000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>275</v>
@@ -11010,7 +11710,7 @@
         <v>252</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>189</v>
@@ -11022,13 +11722,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G15" s="2">
         <v>252000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>275</v>
@@ -11054,7 +11754,7 @@
         <v>253</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>189</v>
@@ -11066,13 +11766,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G16" s="2">
         <v>300000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>275</v>
@@ -11098,7 +11798,7 @@
         <v>254</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>188</v>
@@ -11110,13 +11810,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G17" s="2">
         <v>55000000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>275</v>
@@ -11142,7 +11842,7 @@
         <v>255</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>189</v>
@@ -11154,13 +11854,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G18" s="2">
         <v>1500000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>275</v>
@@ -11186,25 +11886,25 @@
         <v>256</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G19" s="2">
         <v>18000000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>275</v>
@@ -11230,7 +11930,7 @@
         <v>257</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>188</v>
@@ -11242,13 +11942,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G20" s="2">
         <v>1780</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>275</v>
@@ -11274,7 +11974,7 @@
         <v>258</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>189</v>
@@ -11286,13 +11986,13 @@
         <v>100000</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>275</v>
@@ -11318,7 +12018,7 @@
         <v>259</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>188</v>
@@ -11330,13 +12030,13 @@
         <v>100000</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G22" s="2">
         <v>7000000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>275</v>
@@ -11362,7 +12062,7 @@
         <v>260</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>188</v>
@@ -11374,13 +12074,13 @@
         <v>10000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G23" s="2">
         <v>10780000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>275</v>
@@ -11406,7 +12106,7 @@
         <v>261</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>189</v>
@@ -11418,13 +12118,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G24" s="2">
         <v>15000000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>275</v>
@@ -11450,7 +12150,7 @@
         <v>262</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>189</v>
@@ -11462,13 +12162,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G25" s="2">
         <v>5000000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>275</v>
@@ -11494,7 +12194,7 @@
         <v>263</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>188</v>
@@ -11506,13 +12206,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G26" s="2">
         <v>6000000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>275</v>
@@ -11548,7 +12248,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -11565,7 +12265,7 @@
         <v>290</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -11582,7 +12282,7 @@
         <v>291</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -11599,7 +12299,7 @@
         <v>292</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -11616,7 +12316,7 @@
         <v>293</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C5" s="2">
         <v>-1</v>
@@ -11633,7 +12333,7 @@
         <v>294</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C6" s="2">
         <v>0.1</v>
@@ -11642,7 +12342,7 @@
         <v>190</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11650,7 +12350,7 @@
         <v>295</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -11667,7 +12367,7 @@
         <v>296</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -11684,7 +12384,7 @@
         <v>297</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -11701,7 +12401,7 @@
         <v>298</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -11718,7 +12418,7 @@
         <v>299</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -11735,7 +12435,7 @@
         <v>300</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -11752,10 +12452,10 @@
         <v>301</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>189</v>
@@ -11769,7 +12469,7 @@
         <v>302</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -11778,7 +12478,7 @@
         <v>189</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11786,7 +12486,7 @@
         <v>303</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -11803,7 +12503,7 @@
         <v>304</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -11820,7 +12520,7 @@
         <v>305</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -11837,7 +12537,7 @@
         <v>307</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -11864,16 +12564,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11881,16 +12581,16 @@
         <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11898,10 +12598,10 @@
         <v>313</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>190</v>
@@ -11913,10 +12613,10 @@
         <v>314</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>188</v>
@@ -11928,10 +12628,10 @@
         <v>315</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>188</v>
@@ -11943,10 +12643,10 @@
         <v>317</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>188</v>
@@ -11958,16 +12658,16 @@
         <v>318</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>189</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11975,10 +12675,10 @@
         <v>319</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>188</v>
@@ -12000,22 +12700,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E1" s="1">
         <v>180350000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -12023,22 +12723,22 @@
         <v>324</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2">
         <v>180350000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -12046,22 +12746,22 @@
         <v>325</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E3" s="2">
         <v>44665413</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12069,22 +12769,22 @@
         <v>326</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -12092,22 +12792,22 @@
         <v>327</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E5" s="2">
         <v>177126000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -12115,22 +12815,22 @@
         <v>328</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -12138,22 +12838,22 @@
         <v>329</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -12174,19 +12874,19 @@
         <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E1" s="1">
         <v>17500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -12197,19 +12897,19 @@
         <v>189</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E2" s="2">
         <v>17500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -12220,19 +12920,19 @@
         <v>285</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
+++ b/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="415">
   <si>
     <t>name</t>
   </si>
@@ -1100,7 +1100,7 @@
     <t>鑽戒</t>
   </si>
   <si>
-    <t>鑽耳環■</t>
+    <t>鑽耳環</t>
   </si>
   <si>
     <t>鑽項鍊</t>
@@ -1145,6 +1145,9 @@
     <t>福州溫泉高爾夫球證</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -1154,6 +1157,9 @@
     <t>300000</t>
   </si>
   <si>
+    <t>otherbonds</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
@@ -1220,7 +1226,7 @@
     <t>180588000</t>
   </si>
   <si>
-    <t>100年08月15日■</t>
+    <t>100年08月15日</t>
   </si>
   <si>
     <t>98年11月23日</t>
@@ -12240,27 +12246,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" s="1">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>290</v>
       </c>
@@ -12276,8 +12303,29 @@
       <c r="E2" s="2">
         <v>700000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L2" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>291</v>
       </c>
@@ -12293,8 +12341,29 @@
       <c r="E3" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L3" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>292</v>
       </c>
@@ -12310,8 +12379,29 @@
       <c r="E4" s="2">
         <v>800000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L4" s="2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>293</v>
       </c>
@@ -12319,7 +12409,7 @@
         <v>361</v>
       </c>
       <c r="C5" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>188</v>
@@ -12327,8 +12417,29 @@
       <c r="E5" s="2">
         <v>900000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L5" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>294</v>
       </c>
@@ -12336,16 +12447,37 @@
         <v>362</v>
       </c>
       <c r="C6" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>190</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>376</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L6" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>295</v>
       </c>
@@ -12361,8 +12493,29 @@
       <c r="E7" s="2">
         <v>800000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L7" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>296</v>
       </c>
@@ -12378,8 +12531,29 @@
       <c r="E8" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L8" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>297</v>
       </c>
@@ -12395,16 +12569,37 @@
       <c r="E9" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L9" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>298</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
+      <c r="C10" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>188</v>
@@ -12412,8 +12607,29 @@
       <c r="E10" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L10" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>299</v>
       </c>
@@ -12429,8 +12645,29 @@
       <c r="E11" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L11" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>300</v>
       </c>
@@ -12446,8 +12683,29 @@
       <c r="E12" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L12" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>301</v>
       </c>
@@ -12455,7 +12713,7 @@
         <v>368</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>189</v>
@@ -12463,8 +12721,29 @@
       <c r="E13" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L13" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>302</v>
       </c>
@@ -12478,10 +12757,31 @@
         <v>189</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>377</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L14" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>303</v>
       </c>
@@ -12497,8 +12797,29 @@
       <c r="E15" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L15" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>304</v>
       </c>
@@ -12514,8 +12835,29 @@
       <c r="E16" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L16" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>305</v>
       </c>
@@ -12531,8 +12873,29 @@
       <c r="E17" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L17" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>307</v>
       </c>
@@ -12547,6 +12910,27 @@
       </c>
       <c r="E18" s="2">
         <v>500000</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L18" s="2">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -12564,16 +12948,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12581,16 +12965,16 @@
         <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12598,10 +12982,10 @@
         <v>313</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>190</v>
@@ -12613,10 +12997,10 @@
         <v>314</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>188</v>
@@ -12628,10 +13012,10 @@
         <v>315</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>188</v>
@@ -12643,10 +13027,10 @@
         <v>317</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>188</v>
@@ -12658,16 +13042,16 @@
         <v>318</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>189</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12675,10 +13059,10 @@
         <v>319</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>188</v>
@@ -12700,22 +13084,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E1" s="1">
         <v>180350000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -12723,22 +13107,22 @@
         <v>324</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E2" s="2">
         <v>180350000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -12746,22 +13130,22 @@
         <v>325</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E3" s="2">
         <v>44665413</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12769,22 +13153,22 @@
         <v>326</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -12792,22 +13176,22 @@
         <v>327</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E5" s="2">
         <v>177126000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -12815,22 +13199,22 @@
         <v>328</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -12838,22 +13222,22 @@
         <v>329</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -12874,19 +13258,19 @@
         <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E1" s="1">
         <v>17500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -12897,19 +13281,19 @@
         <v>189</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E2" s="2">
         <v>17500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -12920,19 +13304,19 @@
         <v>285</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
+++ b/legislator/property/output/normal/張慶忠_2013-12-12_財產申報表_tmpe4561.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="417">
   <si>
     <t>name</t>
   </si>
@@ -1157,21 +1157,21 @@
     <t>300000</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
     <t>利率變動型年金保險（甲型）</t>
   </si>
   <si>
-    <t>分成2張保單</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
     <t>金歡喜110養老保險</t>
   </si>
   <si>
@@ -1190,7 +1190,13 @@
     <t>金美利美元養老保險</t>
   </si>
   <si>
-    <t>已變更為減額繳清保險。</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>未兌現支票</t>
@@ -1199,73 +1205,73 @@
     <t>漢寶開發建設(股)公司新北市中和區安樂路217巷20巷8號</t>
   </si>
   <si>
+    <t>基鴻建設股份有限公司新北市中和區建一路148號2樓.</t>
+  </si>
+  <si>
+    <t>漢龍營造股份有限公司新北市中和區安樂路217巷20弄8號</t>
+  </si>
+  <si>
+    <t>漢堡開發建設(股)公司新北市中和區建一路148號8樓</t>
+  </si>
+  <si>
+    <t>資信建設股份有限公司新北市中和區安樂路217巷20弄8號</t>
+  </si>
+  <si>
     <t>98年10月23日</t>
   </si>
   <si>
+    <t>100年08月15日</t>
+  </si>
+  <si>
+    <t>98年11月23日</t>
+  </si>
+  <si>
+    <t>102年12月12日</t>
+  </si>
+  <si>
+    <t>100年02月22日</t>
+  </si>
+  <si>
+    <t>98年12月06日</t>
+  </si>
+  <si>
     <t>借款</t>
   </si>
   <si>
-    <t>基鴻建設股份有限公司新北市中和區建一路148號2樓.</t>
-  </si>
-  <si>
-    <t>漢龍營造股份有限公司新北市中和區安樂路217巷20弄8號</t>
-  </si>
-  <si>
-    <t>漢堡開發建設(股)公司新北市中和區建一路148號8樓</t>
-  </si>
-  <si>
-    <t>資信建設股份有限公司新北市中和區安樂路217巷20弄8號</t>
-  </si>
-  <si>
-    <t>140700000</t>
-  </si>
-  <si>
-    <t>66700000</t>
-  </si>
-  <si>
-    <t>180588000</t>
-  </si>
-  <si>
-    <t>100年08月15日</t>
-  </si>
-  <si>
-    <t>98年11月23日</t>
-  </si>
-  <si>
-    <t>102年12月12日</t>
-  </si>
-  <si>
-    <t>100年02月22日</t>
-  </si>
-  <si>
-    <t>98年12月06日</t>
-  </si>
-  <si>
     <t>股東往來</t>
   </si>
   <si>
     <t>代收土地款</t>
   </si>
   <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>漢禧建設有限公司</t>
   </si>
   <si>
+    <t>弘基消防安全設備有限公司</t>
+  </si>
+  <si>
     <t>新北市安樂路217巷20弄8號</t>
   </si>
   <si>
+    <t>新北市景平路7821號5樓</t>
+  </si>
+  <si>
     <t>86年03月18日</t>
   </si>
   <si>
+    <t>92年03月28日</t>
+  </si>
+  <si>
     <t>股金</t>
   </si>
   <si>
-    <t>弘基消防安全設備有限公司</t>
-  </si>
-  <si>
-    <t>新北市景平路7821號5樓</t>
-  </si>
-  <si>
-    <t>92年03月28日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -12940,64 +12946,120 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>389</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K2" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>313</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>383</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>314</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>384</v>
@@ -13005,14 +13067,34 @@
       <c r="D4" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K4" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>315</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>385</v>
@@ -13020,14 +13102,34 @@
       <c r="D5" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K5" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>317</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>386</v>
@@ -13035,14 +13137,34 @@
       <c r="D6" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K6" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>318</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>387</v>
@@ -13053,13 +13175,31 @@
       <c r="E7" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K7" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>319</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>388</v>
@@ -13067,7 +13207,27 @@
       <c r="D8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K8" s="2">
+        <v>319</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13076,61 +13236,103 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>390</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E1" s="1">
-        <v>180350000</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>324</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E2" s="2">
         <v>180350000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>404</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N2" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>325</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>188</v>
@@ -13142,18 +13344,39 @@
         <v>44665413</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>405</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N3" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>326</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>189</v>
@@ -13161,45 +13384,87 @@
       <c r="D4" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>398</v>
+      <c r="E4" s="2">
+        <v>140700000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>404</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N4" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>327</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E5" s="2">
         <v>177126000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N5" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>328</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>189</v>
@@ -13207,22 +13472,43 @@
       <c r="D6" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>399</v>
+      <c r="E6" s="2">
+        <v>66700000</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N6" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>329</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>189</v>
@@ -13230,14 +13516,35 @@
       <c r="D7" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>400</v>
+      <c r="E7" s="2">
+        <v>180588000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>393</v>
+        <v>404</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N7" s="2">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -13247,33 +13554,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E1" s="1">
-        <v>17500000</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>410</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>339</v>
       </c>
@@ -13281,22 +13609,43 @@
         <v>189</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E2" s="2">
         <v>17500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>415</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N2" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>340</v>
       </c>
@@ -13304,10 +13653,10 @@
         <v>285</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
@@ -13316,7 +13665,28 @@
         <v>414</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N3" s="2">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
